--- a/AppleReplant2018_metadata.xlsx
+++ b/AppleReplant2018_metadata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arifinabintarti/Documents/Parent/apple_replant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94BF0917-5E19-5147-B436-730071C29978}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D0016-F929-E44B-83FE-20C14C9894F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{D14756F0-EA6C-3545-B4F2-09564C1BCD86}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{D14756F0-EA6C-3545-B4F2-09564C1BCD86}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Soil_chemistry" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="130">
   <si>
     <t>Sample Code</t>
   </si>
@@ -375,6 +376,51 @@
   </si>
   <si>
     <t>G6-T</t>
+  </si>
+  <si>
+    <t>Treatments, including split plot variables:</t>
+  </si>
+  <si>
+    <t>A = trees removed in fall 2017; fallow in 2018</t>
+  </si>
+  <si>
+    <t>B = trees removed in fall 2017; soybean cover in 2018</t>
+  </si>
+  <si>
+    <t>C = trees removed in fall 2017; black oats cover in 2018</t>
+  </si>
+  <si>
+    <t>D = trees removed in fall 2017; oilseed radish cover, tilled under in 2018</t>
+  </si>
+  <si>
+    <t>E = herbicide kill trees before removal in 2018</t>
+  </si>
+  <si>
+    <t>F = herbicide kill trees before removal followed by black oats cover in 2018</t>
+  </si>
+  <si>
+    <t>G = trees removed in fall 2018</t>
+  </si>
+  <si>
+    <t>L = old drive lane</t>
+  </si>
+  <si>
+    <t>T = old tree row</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Each 22' by 42' trt(A-G)/rep(1-6) plot crosses an old drive lane (L) and an old tree row (T) split lengthwise (new rows will be planted on 11 foot spacing).</t>
+  </si>
+  <si>
+    <t>2 composite samples (~10 cores each) were taken from each half (L or T) of the 42 plots for a total of 168 samples.</t>
+  </si>
+  <si>
+    <t>84 samples were delivered to the Shade Lab to sieve, reserving enough soil for microbial analysis and sending the remainder to the Soil Testing Lab.</t>
+  </si>
+  <si>
+    <t>84 samples were delivered to the Quintanilla Lab for nematode analysis.</t>
   </si>
 </sst>
 </file>
@@ -792,7 +838,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5286,4 +5332,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAA4EE2-0B18-6048-B861-8B86D042215E}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>